--- a/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
+++ b/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
@@ -782,47 +782,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD8CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2663,7 +2622,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2757,9 +2716,18 @@
       <c r="F3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="G3" s="15" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$973, A3) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="15" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$807,B3)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <f aca="false">AND(ISNUMBER(C3), ISNUMBER(D3), C3&lt;=D3)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -2780,9 +2748,18 @@
       <c r="F4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="G4" s="15" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$973, A4) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="15" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$807,B4)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <f aca="false">AND(ISNUMBER(C4), ISNUMBER(D4), C4&lt;=D4)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -2803,9 +2780,18 @@
       <c r="F5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="G5" s="15" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$973, A5) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="15" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$807,B5)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <f aca="false">AND(ISNUMBER(C5), ISNUMBER(D5), C5&lt;=D5)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -2826,9 +2812,18 @@
       <c r="F6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="G6" s="15" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$973, A6) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="15" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$807,B6)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <f aca="false">AND(ISNUMBER(C6), ISNUMBER(D6), C6&lt;=D6)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -2849,9 +2844,18 @@
       <c r="F7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="G7" s="15" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$973, A7) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="15" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$807,B7)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <f aca="false">AND(ISNUMBER(C7), ISNUMBER(D7), C7&lt;=D7)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -2872,9 +2876,18 @@
       <c r="F8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="G8" s="15" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$973, A8) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="15" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$807,B8)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <f aca="false">AND(ISNUMBER(C8), ISNUMBER(D8), C8&lt;=D8)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -2895,9 +2908,18 @@
       <c r="F9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="G9" s="15" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$973, A9) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="15" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$807,B9)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <f aca="false">AND(ISNUMBER(C9), ISNUMBER(D9), C9&lt;=D9)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -2918,9 +2940,18 @@
       <c r="F10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="G10" s="15" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$973, A10) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="15" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$807,B10)&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <f aca="false">AND(ISNUMBER(C10), ISNUMBER(D10), C10&lt;=D10)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="12"/>
@@ -2968,144 +2999,144 @@
       <c r="I15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
-      <c r="B20" s="0"/>
-      <c r="C20" s="0"/>
-      <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
-      <c r="F23" s="0"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
-      <c r="F28" s="0"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
@@ -3878,11 +3909,11 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$973,A2)&gt;0</f>
         <v>0</v>
@@ -3895,88 +3926,88 @@
       <c r="K2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0"/>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0"/>
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0"/>
-      <c r="B5" s="0"/>
-      <c r="C5" s="0"/>
-      <c r="D5" s="0"/>
-      <c r="E5" s="0"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0"/>
-      <c r="B6" s="0"/>
-      <c r="C6" s="0"/>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0"/>
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1"/>
@@ -4791,11 +4822,11 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="2" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$973, A2) &gt; 0</f>
         <v>0</v>
@@ -4806,11 +4837,11 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0"/>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6"/>

--- a/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
+++ b/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -457,40 +457,40 @@
     <t xml:space="preserve">Upper</t>
   </si>
   <si>
-    <t xml:space="preserve">January.2025</t>
+    <t xml:space="preserve">Jan.25</t>
   </si>
   <si>
-    <t xml:space="preserve">February.2025</t>
+    <t xml:space="preserve">Feb.25</t>
   </si>
   <si>
-    <t xml:space="preserve">March.2025</t>
+    <t xml:space="preserve">Mar.25</t>
   </si>
   <si>
-    <t xml:space="preserve">April.2025</t>
+    <t xml:space="preserve">Apr.25</t>
   </si>
   <si>
-    <t xml:space="preserve">May.2025</t>
+    <t xml:space="preserve">May.25</t>
   </si>
   <si>
-    <t xml:space="preserve">June.2025</t>
+    <t xml:space="preserve">Jun.25</t>
   </si>
   <si>
-    <t xml:space="preserve">July.2025</t>
+    <t xml:space="preserve">Jul.25</t>
   </si>
   <si>
-    <t xml:space="preserve">August.2025</t>
+    <t xml:space="preserve">Aug.25</t>
   </si>
   <si>
-    <t xml:space="preserve">September.2025</t>
+    <t xml:space="preserve">Sep.25</t>
   </si>
   <si>
-    <t xml:space="preserve">October.2025</t>
+    <t xml:space="preserve">Oct.25</t>
   </si>
   <si>
-    <t xml:space="preserve">November.2025</t>
+    <t xml:space="preserve">Nov.25</t>
   </si>
   <si>
-    <t xml:space="preserve">December.2025</t>
+    <t xml:space="preserve">Dec.25</t>
   </si>
   <si>
     <t xml:space="preserve">Period</t>
@@ -672,7 +672,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -741,12 +741,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -959,7 +963,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B2:B13 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1076,14 +1080,14 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="13.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="7" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.57"/>
   </cols>
@@ -1158,7 +1162,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="1" t="n">
@@ -1180,7 +1184,7 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="1" t="n">
@@ -1202,7 +1206,7 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -1224,7 +1228,7 @@
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="1" t="n">
@@ -1246,7 +1250,7 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="1" t="n">
@@ -1268,7 +1272,7 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="1" t="n">
@@ -1290,7 +1294,7 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="1" t="n">
@@ -1312,7 +1316,7 @@
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="1" t="n">
@@ -1334,7 +1338,7 @@
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="1" t="n">
@@ -1356,7 +1360,7 @@
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="1" t="n">
@@ -1562,7 +1566,7 @@
   <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B2:B13 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1750,7 +1754,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I63" activeCellId="0" sqref="I63"/>
+      <selection pane="topLeft" activeCell="I63" activeCellId="1" sqref="B2:B13 I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1790,19 +1794,19 @@
       <c r="H1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="22" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1831,23 +1835,23 @@
       <c r="H2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="22" t="n">
+      <c r="I2" s="23" t="n">
         <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C804))</f>
         <v>46002</v>
       </c>
-      <c r="J2" s="23" t="n">
+      <c r="J2" s="24" t="n">
         <f aca="false">AND(ISNUMBER(D2), D2&gt;A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="24" t="b">
+      <c r="K2" s="25" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&lt;=I2)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="24" t="b">
+      <c r="L2" s="25" t="b">
         <f aca="false">AND(ISNUMBER(F2), F2&gt;A2)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="24" t="b">
+      <c r="M2" s="25" t="b">
         <f aca="false">AND(ISNUMBER(G2), G2&lt;=I2)</f>
         <v>1</v>
       </c>
@@ -1871,7 +1875,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B2:B13 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2258,7 +2262,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B2:B13 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2621,8 +2625,8 @@
   </sheetPr>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I13" activeCellId="1" sqref="B2:B13 I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3452,7 +3456,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="1" sqref="B2:B13 G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3873,7 +3877,7 @@
   <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="B2:B13 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4365,7 +4369,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="B2:B13 I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4786,7 +4790,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="B2:B13 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5007,7 +5011,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B2:B13 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5063,13 +5067,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="19" t="n">
+      <c r="B4" s="20" t="n">
         <v>45702</v>
       </c>
-      <c r="C4" s="19" t="n">
+      <c r="C4" s="20" t="n">
         <v>45732</v>
       </c>
       <c r="D4" s="2" t="n">
@@ -5078,13 +5082,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="19" t="n">
+      <c r="B5" s="20" t="n">
         <v>45733</v>
       </c>
-      <c r="C5" s="19" t="n">
+      <c r="C5" s="20" t="n">
         <v>45761</v>
       </c>
       <c r="D5" s="2" t="n">
@@ -5093,13 +5097,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="19" t="n">
+      <c r="B6" s="20" t="n">
         <v>45762</v>
       </c>
-      <c r="C6" s="19" t="n">
+      <c r="C6" s="20" t="n">
         <v>45795</v>
       </c>
       <c r="D6" s="2" t="n">
@@ -5108,13 +5112,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="19" t="n">
+      <c r="B7" s="20" t="n">
         <v>45796</v>
       </c>
-      <c r="C7" s="19" t="n">
+      <c r="C7" s="20" t="n">
         <v>45826</v>
       </c>
       <c r="D7" s="2" t="n">
@@ -5123,13 +5127,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="6" t="n">
         <v>45827</v>
       </c>
-      <c r="C8" s="19" t="n">
+      <c r="C8" s="20" t="n">
         <v>45855</v>
       </c>
       <c r="D8" s="2" t="n">
@@ -5138,13 +5142,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="19" t="n">
+      <c r="B9" s="20" t="n">
         <v>45856</v>
       </c>
-      <c r="C9" s="19" t="n">
+      <c r="C9" s="20" t="n">
         <v>45886</v>
       </c>
       <c r="D9" s="2" t="n">
@@ -5153,7 +5157,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="6" t="n">
@@ -5168,7 +5172,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="6" t="n">
@@ -5183,7 +5187,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="6" t="n">
@@ -5198,7 +5202,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="6" t="n">

--- a/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
+++ b/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -538,7 +538,7 @@
     <t xml:space="preserve">Is H:end OK?</t>
   </si>
   <si>
-    <t xml:space="preserve">highs</t>
+    <t xml:space="preserve">gcg</t>
   </si>
 </sst>
 </file>
@@ -963,7 +963,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B2:B13 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1080,8 +1080,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1566,7 +1566,7 @@
   <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B2:B13 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1753,8 +1753,8 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I63" activeCellId="1" sqref="B2:B13 I63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1875,7 +1875,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B2:B13 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2262,7 +2262,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B2:B13 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2626,7 +2626,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="1" sqref="B2:B13 I13"/>
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3456,7 +3456,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="1" sqref="B2:B13 G11"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3877,7 +3877,7 @@
   <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="B2:B13 F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4369,7 +4369,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="B2:B13 I2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4790,7 +4790,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="B2:B13 F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5011,7 +5011,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B2:B13 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
+++ b/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -79,6 +79,29 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Valid period?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Are dates OK?</t>
         </r>
       </text>
     </comment>
@@ -197,166 +220,6 @@
       </text>
     </comment>
     <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Are date OK?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid expert?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid task?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Are date OK?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid expert?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Are date OK?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid expert?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid task?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Are date OK?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid expert?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -672,7 +535,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -759,6 +622,14 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1563,51 +1434,62 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
         <v>33</v>
       </c>
+      <c r="B1" s="11" t="b">
+        <f aca="false">AND(B2:B905)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
-        <v>45650</v>
+        <v>45658</v>
+      </c>
+      <c r="B2" s="23" t="n">
+        <f aca="false">AND(ISNUMBER(A2),misc!$A$2&lt;=A2)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
-        <v>45651</v>
+        <v>45767</v>
+      </c>
+      <c r="B3" s="23" t="n">
+        <f aca="false">AND(ISNUMBER(A3),misc!$A$2&lt;=A3)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
-        <v>45652</v>
+        <v>45778</v>
+      </c>
+      <c r="B4" s="23" t="n">
+        <f aca="false">AND(ISNUMBER(A4),misc!$A$2&lt;=A4)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
-        <v>45658</v>
-      </c>
+      <c r="A5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
-        <v>45767</v>
-      </c>
+      <c r="A6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
-        <v>45778</v>
-      </c>
+      <c r="A7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
@@ -1726,15 +1608,9 @@
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6"/>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1743,6 +1619,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1753,7 +1630,7 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1794,19 +1671,19 @@
       <c r="H1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="24" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1835,23 +1712,23 @@
       <c r="H2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="23" t="n">
+      <c r="I2" s="25" t="n">
         <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C804))</f>
         <v>46002</v>
       </c>
-      <c r="J2" s="24" t="n">
+      <c r="J2" s="26" t="n">
         <f aca="false">AND(ISNUMBER(D2), D2&gt;A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="25" t="b">
+      <c r="K2" s="27" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&lt;=I2)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="25" t="b">
+      <c r="L2" s="27" t="b">
         <f aca="false">AND(ISNUMBER(F2), F2&gt;A2)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="25" t="b">
+      <c r="M2" s="27" t="b">
         <f aca="false">AND(ISNUMBER(G2), G2&lt;=I2)</f>
         <v>1</v>
       </c>
@@ -3453,10 +3330,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3465,7 +3342,6 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="7" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="7" style="2" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3487,35 +3363,11 @@
       <c r="F1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="5" t="b">
-        <f aca="false">AND(G2:G938)</f>
-        <v>0</v>
-      </c>
-      <c r="H1" s="5" t="b">
-        <f aca="false">AND(H2:H938)</f>
-        <v>0</v>
-      </c>
-      <c r="I1" s="11" t="b">
-        <f aca="false">AND(I2:I908)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="1"/>
-      <c r="G2" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$973, A2) &gt; 0</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$807,B2)&gt;0</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(C2), ISNUMBER(D2), C2&lt;=D2)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="1"/>
@@ -3865,7 +3717,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3874,17 +3725,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="2" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3902,14 +3752,6 @@
       </c>
       <c r="E1" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="5" t="b">
-        <f aca="false">AND(F2:F938)</f>
-        <v>0</v>
-      </c>
-      <c r="G1" s="11" t="b">
-        <f aca="false">AND(G2:G908)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3918,16 +3760,8 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$973,A2)&gt;0</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="16"/>
-      <c r="K2" s="7"/>
+      <c r="G2" s="16"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
@@ -4357,7 +4191,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4366,10 +4199,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4378,7 +4211,6 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="7" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="7" style="2" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4400,35 +4232,11 @@
       <c r="F1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="5" t="b">
-        <f aca="false">AND(G2:G938)</f>
-        <v>0</v>
-      </c>
-      <c r="H1" s="5" t="b">
-        <f aca="false">AND(H2:H938)</f>
-        <v>0</v>
-      </c>
-      <c r="I1" s="11" t="b">
-        <f aca="false">AND(I2:I908)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="1"/>
-      <c r="G2" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$973, A2) &gt; 0</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$807,B2)&gt;0</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(C2), ISNUMBER(D2), C2&lt;=D2)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="12"/>
@@ -4778,7 +4586,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4787,17 +4594,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="2" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4815,14 +4621,6 @@
       </c>
       <c r="E1" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="5" t="b">
-        <f aca="false">AND(F2:F938)</f>
-        <v>0</v>
-      </c>
-      <c r="G1" s="11" t="b">
-        <f aca="false">AND(G2:G908)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4831,14 +4629,6 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$973, A2) &gt; 0</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
@@ -4999,7 +4789,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5011,7 +4800,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
+++ b/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -99,7 +99,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Are dates OK?</t>
         </r>
@@ -535,7 +534,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -624,11 +623,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -657,6 +652,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD8CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1436,7 +1448,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -1459,7 +1471,7 @@
       <c r="A2" s="6" t="n">
         <v>45658</v>
       </c>
-      <c r="B2" s="23" t="n">
+      <c r="B2" s="2" t="n">
         <f aca="false">AND(ISNUMBER(A2),misc!$A$2&lt;=A2)</f>
         <v>1</v>
       </c>
@@ -1468,7 +1480,7 @@
       <c r="A3" s="6" t="n">
         <v>45767</v>
       </c>
-      <c r="B3" s="23" t="n">
+      <c r="B3" s="2" t="n">
         <f aca="false">AND(ISNUMBER(A3),misc!$A$2&lt;=A3)</f>
         <v>1</v>
       </c>
@@ -1477,7 +1489,7 @@
       <c r="A4" s="6" t="n">
         <v>45778</v>
       </c>
-      <c r="B4" s="23" t="n">
+      <c r="B4" s="2" t="n">
         <f aca="false">AND(ISNUMBER(A4),misc!$A$2&lt;=A4)</f>
         <v>1</v>
       </c>
@@ -1671,19 +1683,19 @@
       <c r="H1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1712,23 +1724,23 @@
       <c r="H2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="25" t="n">
+      <c r="I2" s="24" t="n">
         <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C804))</f>
         <v>46002</v>
       </c>
-      <c r="J2" s="26" t="n">
+      <c r="J2" s="25" t="n">
         <f aca="false">AND(ISNUMBER(D2), D2&gt;A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="27" t="b">
+      <c r="K2" s="26" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&lt;=I2)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="27" t="b">
+      <c r="L2" s="26" t="b">
         <f aca="false">AND(ISNUMBER(F2), F2&gt;A2)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="27" t="b">
+      <c r="M2" s="26" t="b">
         <f aca="false">AND(ISNUMBER(G2), G2&lt;=I2)</f>
         <v>1</v>
       </c>
@@ -2502,8 +2514,8 @@
   </sheetPr>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2560,7 +2572,7 @@
         <v>45779</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>3</v>
@@ -2583,29 +2595,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="12" t="n">
-        <v>45658</v>
+        <v>45814</v>
       </c>
       <c r="D3" s="12" t="n">
-        <v>45813</v>
+        <v>45844</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G3" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$973, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H3" s="15" t="n">
+      <c r="H3" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$807,B3)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C3), ISNUMBER(D3), C3&lt;=D3)</f>
         <v>1</v>
       </c>
@@ -2615,29 +2627,29 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>45814</v>
+        <v>45658</v>
       </c>
       <c r="D4" s="12" t="n">
-        <v>45844</v>
+        <v>45813</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$973, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H4" s="15" t="n">
+      <c r="H4" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$807,B4)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C4), ISNUMBER(D4), C4&lt;=D4)</f>
         <v>1</v>
       </c>
@@ -2647,13 +2659,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>45658</v>
+        <v>45749</v>
       </c>
       <c r="D5" s="12" t="n">
-        <v>45731</v>
+        <v>45794</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
@@ -2661,15 +2673,15 @@
       <c r="F5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="15" t="n">
+      <c r="G5" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$973, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H5" s="15" t="n">
+      <c r="H5" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$807,B5)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C5), ISNUMBER(D5), C5&lt;=D5)</f>
         <v>1</v>
       </c>
@@ -2679,13 +2691,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>45749</v>
+        <v>45658</v>
       </c>
       <c r="D6" s="12" t="n">
-        <v>45794</v>
+        <v>45731</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0</v>
@@ -2693,15 +2705,15 @@
       <c r="F6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="15" t="n">
+      <c r="G6" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$973, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H6" s="15" t="n">
+      <c r="H6" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$807,B6)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C6), ISNUMBER(D6), C6&lt;=D6)</f>
         <v>1</v>
       </c>
@@ -2711,29 +2723,29 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>45658</v>
+        <v>45790</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>45789</v>
+        <v>45835</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$973, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H7" s="15" t="n">
+      <c r="H7" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$807,B7)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C7), ISNUMBER(D7), C7&lt;=D7)</f>
         <v>1</v>
       </c>
@@ -2743,29 +2755,29 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="12" t="n">
-        <v>45790</v>
+        <v>45658</v>
       </c>
       <c r="D8" s="12" t="n">
-        <v>45835</v>
+        <v>45789</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$973, A8) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H8" s="15" t="n">
+      <c r="H8" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$807,B8)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C8), ISNUMBER(D8), C8&lt;=D8)</f>
         <v>1</v>
       </c>
@@ -2775,29 +2787,29 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="12" t="n">
-        <v>45767</v>
+        <v>45963</v>
       </c>
       <c r="D9" s="12" t="n">
-        <v>45962</v>
+        <v>45991</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="G9" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$973, A9) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H9" s="15" t="n">
+      <c r="H9" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$807,B9)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C9), ISNUMBER(D9), C9&lt;=D9)</f>
         <v>1</v>
       </c>
@@ -2807,29 +2819,29 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="12" t="n">
-        <v>45963</v>
+        <v>45767</v>
       </c>
       <c r="D10" s="12" t="n">
-        <v>45991</v>
+        <v>45962</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="G10" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$973, A10) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H10" s="15" t="n">
+      <c r="H10" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$807,B10)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="2" t="b">
         <f aca="false">AND(ISNUMBER(C10), ISNUMBER(D10), C10&lt;=D10)</f>
         <v>1</v>
       </c>

--- a/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
+++ b/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -652,23 +652,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD8CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -846,7 +829,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2:D13 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -964,7 +947,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2:D13 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1449,7 +1432,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="1" sqref="D2:D13 G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1643,7 +1626,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="D2:D13 H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1764,7 +1747,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2:D13 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2151,7 +2134,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2:D13 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2514,8 +2497,8 @@
   </sheetPr>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="D2:D13 F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3345,7 +3328,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="D2:D13 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3740,7 +3723,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D2:D13 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4214,7 +4197,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="D2:D13 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4609,7 +4592,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D2:D13 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4811,8 +4794,8 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4848,7 +4831,7 @@
         <v>45672</v>
       </c>
       <c r="D2" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2)</f>
+        <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2, C2 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -4863,7 +4846,7 @@
         <v>45701</v>
       </c>
       <c r="D3" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3)</f>
+        <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3, C3 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -4878,7 +4861,7 @@
         <v>45732</v>
       </c>
       <c r="D4" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4)</f>
+        <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4, C4 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -4893,7 +4876,7 @@
         <v>45761</v>
       </c>
       <c r="D5" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5)</f>
+        <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5, C5 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -4908,7 +4891,7 @@
         <v>45795</v>
       </c>
       <c r="D6" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6)</f>
+        <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6, C6 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -4923,7 +4906,7 @@
         <v>45826</v>
       </c>
       <c r="D7" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7)</f>
+        <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7, C7 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -4938,7 +4921,7 @@
         <v>45855</v>
       </c>
       <c r="D8" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8)</f>
+        <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8, C8 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -4953,7 +4936,7 @@
         <v>45886</v>
       </c>
       <c r="D9" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9)</f>
+        <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9, C9 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -4968,7 +4951,7 @@
         <v>45915</v>
       </c>
       <c r="D10" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10)</f>
+        <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10, C10 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -4983,7 +4966,7 @@
         <v>45945</v>
       </c>
       <c r="D11" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11)</f>
+        <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11, C11 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -4998,7 +4981,7 @@
         <v>45973</v>
       </c>
       <c r="D12" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12)</f>
+        <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12, C12 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
@@ -5013,7 +4996,7 @@
         <v>46002</v>
       </c>
       <c r="D13" s="2" t="n">
-        <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13)</f>
+        <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13, C13 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>

--- a/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
+++ b/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -271,10 +271,10 @@
     <t xml:space="preserve">the 1st unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Start day</t>
+    <t xml:space="preserve">Start</t>
   </si>
   <si>
-    <t xml:space="preserve">End day</t>
+    <t xml:space="preserve">End</t>
   </si>
   <si>
     <t xml:space="preserve">Work</t>
@@ -828,8 +828,8 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2:D13 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -947,7 +947,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D2:D13 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1432,7 +1432,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="1" sqref="D2:D13 G14"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1626,7 +1626,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="D2:D13 H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1747,7 +1747,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2:D13 A2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2134,7 +2134,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D2:D13 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2498,7 +2498,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="D2:D13 F6"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3328,7 +3328,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="D2:D13 G1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3723,7 +3723,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D2:D13 F1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4197,7 +4197,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="D2:D13 G1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4592,7 +4592,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D2:D13 F1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4794,8 +4794,8 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
+++ b/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -20,6 +20,12 @@
     <sheet name="invoicing periods bounds" sheetId="10" state="visible" r:id="rId12"/>
     <sheet name="public holidays" sheetId="11" state="visible" r:id="rId13"/>
     <sheet name="misc" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="himg" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="timg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="simg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -257,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="72">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -367,40 +373,112 @@
     <t xml:space="preserve">Hours per day</t>
   </si>
   <si>
-    <t xml:space="preserve">dpi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T:start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T:end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H:start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H:end</t>
-  </si>
-  <si>
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
   </si>
   <si>
-    <t xml:space="preserve">Is T:start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is T:end OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is H:start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is H:end OK?</t>
-  </si>
-  <si>
     <t xml:space="preserve">gcg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dpi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:hatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2ca02c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks per day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#d62728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours per day stacked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task's Gantt Chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ff7f0e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoicing Periods Workload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:ecolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:capsize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#7BC8F6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#EE0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task with bounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:hatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot:format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot:markeredgewidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step:linewidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#90EE90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o</t>
   </si>
 </sst>
 </file>
@@ -413,7 +491,7 @@
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -467,8 +545,15 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,6 +582,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD7D7"/>
         <bgColor rgb="FFFFD8CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
   </fills>
@@ -632,10 +723,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -703,7 +794,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -828,7 +919,7 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -946,7 +1037,7 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1431,7 +1522,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -1454,7 +1545,7 @@
       <c r="A2" s="6" t="n">
         <v>45658</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(A2),misc!$A$2&lt;=A2)</f>
         <v>1</v>
       </c>
@@ -1463,7 +1554,7 @@
       <c r="A3" s="6" t="n">
         <v>45767</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2" t="b">
         <f aca="false">AND(ISNUMBER(A3),misc!$A$2&lt;=A3)</f>
         <v>1</v>
       </c>
@@ -1472,7 +1563,7 @@
       <c r="A4" s="6" t="n">
         <v>45778</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2" t="b">
         <f aca="false">AND(ISNUMBER(A4),misc!$A$2&lt;=A4)</f>
         <v>1</v>
       </c>
@@ -1623,22 +1714,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="19.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="14.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="14.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="15.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="13.59"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="14.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1651,35 +1738,8 @@
       <c r="C1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="23" t="s">
         <v>37</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1689,43 +1749,551 @@
       <c r="B2" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" s="12" t="n">
-        <v>45658</v>
-      </c>
-      <c r="E2" s="12" t="n">
-        <v>46002</v>
-      </c>
-      <c r="F2" s="12" t="n">
-        <v>45658</v>
-      </c>
-      <c r="G2" s="12" t="n">
-        <v>46002</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="24" t="n">
+      <c r="C2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="24" t="n">
         <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C804))</f>
         <v>46002</v>
       </c>
-      <c r="J2" s="25" t="n">
-        <f aca="false">AND(ISNUMBER(D2), D2&gt;A2)</f>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="23.18"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="12" t="n">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="12" t="n">
+        <v>46002</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="26" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
       <c r="K2" s="26" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&lt;=I2)</f>
-        <v>1</v>
-      </c>
-      <c r="L2" s="26" t="b">
-        <f aca="false">AND(ISNUMBER(F2), F2&gt;A2)</f>
-        <v>1</v>
-      </c>
-      <c r="M2" s="26" t="b">
-        <f aca="false">AND(ISNUMBER(G2), G2&lt;=I2)</f>
-        <v>1</v>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="12" t="n">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="12" t="n">
+        <v>46002</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="26" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="26" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="12" t="n">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="12" t="n">
+        <v>46002</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2" s="26" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="26" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="12" t="n">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="12" t="n">
+        <v>46002</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J2" s="26" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="26" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="7" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1746,7 +2314,7 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1953,15 +2521,15 @@
       <c r="D8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$731, A8) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="2" t="b">
         <f aca="false">C8&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8)</f>
         <v>1</v>
       </c>
@@ -1979,15 +2547,15 @@
       <c r="D9" s="7" t="n">
         <v>1050</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$731, A9) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="2" t="b">
         <f aca="false">C9&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9)</f>
         <v>1</v>
       </c>
@@ -2005,15 +2573,15 @@
       <c r="D10" s="7" t="n">
         <v>120</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$731, A10) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="2" t="b">
         <f aca="false">C10&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10)</f>
         <v>1</v>
       </c>
@@ -2133,7 +2701,7 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2497,7 +3065,7 @@
   </sheetPr>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3327,7 +3895,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3722,7 +4290,7 @@
   </sheetPr>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4196,7 +4764,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4591,7 +5159,7 @@
   </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4794,7 +5362,7 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4845,7 +5413,7 @@
       <c r="C3" s="18" t="n">
         <v>45701</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3, C3 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -4860,7 +5428,7 @@
       <c r="C4" s="20" t="n">
         <v>45732</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4, C4 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -4875,7 +5443,7 @@
       <c r="C5" s="20" t="n">
         <v>45761</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5, C5 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -4890,7 +5458,7 @@
       <c r="C6" s="20" t="n">
         <v>45795</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6, C6 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -4905,7 +5473,7 @@
       <c r="C7" s="20" t="n">
         <v>45826</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7, C7 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -4920,7 +5488,7 @@
       <c r="C8" s="20" t="n">
         <v>45855</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8, C8 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -4935,7 +5503,7 @@
       <c r="C9" s="20" t="n">
         <v>45886</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9, C9 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -4950,7 +5518,7 @@
       <c r="C10" s="6" t="n">
         <v>45915</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10, C10 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -4965,7 +5533,7 @@
       <c r="C11" s="6" t="n">
         <v>45945</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11, C11 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -4980,7 +5548,7 @@
       <c r="C12" s="6" t="n">
         <v>45973</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12, C12 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -4995,7 +5563,7 @@
       <c r="C13" s="6" t="n">
         <v>46002</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13, C13 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>

--- a/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
+++ b/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -1716,7 +1716,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -1970,8 +1970,8 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2023,7 +2023,8 @@
         <v>45658</v>
       </c>
       <c r="F2" s="12" t="n">
-        <v>46002</v>
+        <f aca="false">E2+20</f>
+        <v>45678</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>0.6</v>
@@ -2152,7 +2153,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2223,7 +2224,7 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
+++ b/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -1776,7 +1776,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1835,7 +1835,8 @@
         <v>45658</v>
       </c>
       <c r="F2" s="12" t="n">
-        <v>46002</v>
+        <f aca="false">E2+20</f>
+        <v>45678</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>47</v>
@@ -1873,8 +1874,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1932,7 +1933,8 @@
         <v>45658</v>
       </c>
       <c r="F2" s="12" t="n">
-        <v>46002</v>
+        <f aca="false">E2+20</f>
+        <v>45678</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>50</v>
@@ -1970,8 +1972,8 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
+++ b/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="72">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1874,7 +1874,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2056,16 +2056,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2082,25 +2082,13 @@
         <v>41</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2113,28 +2101,14 @@
       <c r="D2" s="7" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="12" t="n">
-        <v>45658</v>
-      </c>
-      <c r="F2" s="12" t="n">
-        <v>46002</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="7" t="n">
+      <c r="F2" s="7" t="n">
         <v>0.9</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="G2" s="7" t="n">
         <v>0.6</v>
-      </c>
-      <c r="J2" s="26" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="26" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
+++ b/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
@@ -26,6 +26,7 @@
     <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
     <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
     <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="eimg" sheetId="19" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -263,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="73">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -479,6 +480,9 @@
   </si>
   <si>
     <t xml:space="preserve">o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experts per day stacked</t>
   </si>
 </sst>
 </file>
@@ -2059,7 +2063,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2271,6 +2275,65 @@
       </c>
       <c r="J2" s="7" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
+++ b/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,13 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1614,7 +1614,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4781,7 +4781,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
+++ b/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="75">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -375,10 +375,16 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
+    <t xml:space="preserve">With ubday</t>
+  </si>
+  <si>
     <t xml:space="preserve">Last day</t>
   </si>
   <si>
     <t xml:space="preserve">gcg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">Width</t>
@@ -922,7 +928,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="1" sqref="D1:D2 C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1037,10 +1043,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1048,7 +1054,8 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="19.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="14.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="14.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1061,8 +1068,11 @@
       <c r="C1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="10" t="s">
         <v>37</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,9 +1083,12 @@
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="24" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="24" t="n">
         <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C804))</f>
         <v>46002</v>
       </c>
@@ -1099,7 +1112,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1114,13 +1127,13 @@
         <v>35</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>4</v>
@@ -1129,19 +1142,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1162,10 +1175,10 @@
         <v>45678</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.3</v>
@@ -1175,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="26" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1198,7 +1211,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1209,16 +1222,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>4</v>
@@ -1227,19 +1240,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1260,10 +1273,10 @@
         <v>45678</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.3</v>
@@ -1273,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="26" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1296,7 +1309,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1307,16 +1320,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>4</v>
@@ -1325,13 +1338,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1359,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="26" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1382,7 +1395,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="1" sqref="D1:D2 F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1393,25 +1406,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,7 +1438,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F2" s="7" t="n">
         <v>0.9</v>
@@ -1453,7 +1466,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1464,25 +1477,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1496,10 +1509,10 @@
         <v>150</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>4</v>
@@ -1524,7 +1537,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1537,34 +1550,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,16 +1591,16 @@
         <v>150</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>0.2</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.5</v>
@@ -1614,8 +1627,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1626,19 +1639,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1674,7 +1687,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2061,7 +2074,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2425,7 +2438,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3255,7 +3268,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3729,7 +3742,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3932,7 +3945,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4297,7 +4310,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D1:D2 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4782,7 +4795,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="1" sqref="D1:D2 F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
+++ b/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,14 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="img" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgh" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgt" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgs" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgw" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imgb" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imge" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -262,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="76">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -387,6 +388,9 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
+    <t xml:space="preserve">For all charts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Width</t>
   </si>
   <si>
@@ -396,6 +400,12 @@
     <t xml:space="preserve">Dpi</t>
   </si>
   <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bar:color</t>
   </si>
   <si>
@@ -403,12 +413,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bar:alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is End OK?</t>
   </si>
   <si>
     <t xml:space="preserve">#2ca02c</t>
@@ -633,7 +637,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -735,10 +739,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -928,7 +928,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="1" sqref="D1:D2 C27"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1045,8 +1045,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1109,31 +1109,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="23.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>4</v>
@@ -1141,53 +1140,36 @@
       <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="23" t="s">
         <v>46</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>150</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>45658</v>
+        <f aca="false">misc!A2+1</f>
+        <v>45657</v>
       </c>
       <c r="F2" s="12" t="n">
         <f aca="false">E2+20</f>
-        <v>45678</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="26" t="b">
+        <v>45677</v>
+      </c>
+      <c r="G2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="26" t="b">
+      <c r="H2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
@@ -1208,86 +1190,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="23.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="12" t="n">
-        <v>45658</v>
-      </c>
-      <c r="F2" s="12" t="n">
-        <f aca="false">E2+20</f>
-        <v>45678</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="7" t="n">
         <v>0.3</v>
-      </c>
-      <c r="J2" s="26" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="26" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1306,74 +1244,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="12" t="n">
-        <v>45658</v>
-      </c>
-      <c r="F2" s="12" t="n">
-        <f aca="false">E2+20</f>
-        <v>45678</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="26" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="26" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -1392,16 +1297,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="1" sqref="D1:D2 F8"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1409,41 +1314,11 @@
         <v>55</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="7" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="7" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -1463,59 +1338,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
       <c r="C2" s="7" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1534,79 +1391,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
+      <c r="D2" s="7" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="7" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1625,46 +1444,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="7" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -1687,7 +1561,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2074,7 +1948,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2438,7 +2312,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3268,7 +3142,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3742,7 +3616,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3945,7 +3819,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4310,7 +4184,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D1:D2 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4795,7 +4669,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="1" sqref="D1:D2 F24"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
+++ b/ampl-data-input-excel/13-SA.Adrian/13-SA.Adrian.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -376,7 +376,7 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">With ubday</t>
+    <t xml:space="preserve">AMPL model</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
@@ -385,7 +385,7 @@
     <t xml:space="preserve">gcg</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
+    <t xml:space="preserve">solid</t>
   </si>
   <si>
     <t xml:space="preserve">For all charts</t>
@@ -928,7 +928,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="1" sqref="D1:D2 C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1045,8 +1045,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1112,7 +1112,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="D1:D2 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1247,7 +1247,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1300,7 +1300,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D1:D2 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1341,7 +1341,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1394,7 +1394,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1447,7 +1447,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1519,8 +1519,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1561,7 +1561,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1948,7 +1948,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2312,7 +2312,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3142,7 +3142,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3616,7 +3616,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3819,7 +3819,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4184,7 +4184,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="D1:D2 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4669,7 +4669,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="1" sqref="D1:D2 F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
